--- a/DatabaseUpdate/ExcelFiles/PrintedDocuments.xlsx
+++ b/DatabaseUpdate/ExcelFiles/PrintedDocuments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
@@ -34,6 +34,9 @@
     <x:t>Options</x:t>
   </x:si>
   <x:si>
+    <x:t>Priority</x:t>
+  </x:si>
+  <x:si>
     <x:t>1</x:t>
   </x:si>
   <x:si>
@@ -338,6 +341,216 @@
   </x:si>
   <x:si>
     <x:t>|referralToCommonCommission|</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Лист записи на дату</x:t>
+  </x:si>
+  <x:si>
+    <x:t>|assignmentsOnDate|</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Талон амбулаторного пациента</x:t>
+  </x:si>
+  <x:si>
+    <x:t>|ambTalon|</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Согласие на присутствие студентов, ординаторов ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Согласие на виды медицинских вмешательств, включенных в перечень ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отказ от видов медицинских вмешательств, включенных в перечень...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Согласие на использование лекарственного средства, не зарегистрированного в РФ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Согласие на проведение профилактических прививок</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Согласие на операцию переливания компонентов крови</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Согласие пациента на предложенный план лечения аллергического ринита</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Согласие на молекулярно-генетическое исследование</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отказ от госпитализации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отказ от дальнейшего лечения в стационаре</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Согласие на анестезиологическое обеспечение медицинского вмешательства</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Согласие на  оперативное вмешательство</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Согласие пациента на операцию аденотомия</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Согласие с общим планом обследования и лечения</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Согласие на проведение лечебного питания</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Согласие на проведение аллергообследования</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Согласие на проведение аллерген-специфической иммунотерапии (АСИТ)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Согласие на проведение велоэргометрии</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Согласие на проведение КТ, МРТ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Согласие на проведение цистографии</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Согласие на проведение ретроградной цистометрии</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Согласие на проведение цистоскопии</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Согласие на проведение экскреторной урографии (ЭУГ)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Согласие на исследование ЖКТ эндоскопическими методами</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Согласие обследоваться на ВИЧ инфекцию</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Согласие на стоматологическое обследование и лечение</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отказ от медицинского вмешательства</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Согласие на применение местной инъекционной анестезии</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Согласие на оказание медицинской помощи в рамках клинической апробации методов профилактики, диагностики, лечения и реабилитации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Согласие на оказание мед помощи в рамках клинич апробации методов проф, диагн, леч и реабил</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отказ от оказания медицинской помощи в рамках клинической апробации методов профилактики, диагностики, лечения и реабилитации</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отказ от оказания мед помощи в рамках клинич апробации методов проф, диагн, леч и реабил</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -688,13 +901,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F34"/>
+  <x:dimension ref="A1:G66"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:6">
+    <x:row r="1" spans="1:7">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -713,651 +926,1479 @@
       <x:c r="F1" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6">
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="G2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="A3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="A4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:6">
-      <x:c r="A3" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7">
+      <x:c r="A5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="A4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="A5" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="F5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7">
+      <x:c r="A6" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7">
+      <x:c r="A7" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7">
+      <x:c r="A8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:6">
-      <x:c r="A6" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:6">
-      <x:c r="A7" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="F8" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7">
+      <x:c r="A9" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:7">
+      <x:c r="A10" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:7">
+      <x:c r="A11" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:6">
-      <x:c r="A8" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:6">
-      <x:c r="A9" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="F11" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:7">
+      <x:c r="A12" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:6">
-      <x:c r="A10" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="F12" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:7">
+      <x:c r="A13" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="s">
+      <x:c r="C13" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:6">
-      <x:c r="A11" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="F13" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:7">
+      <x:c r="A14" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:7">
+      <x:c r="A15" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:7">
+      <x:c r="A16" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:7">
+      <x:c r="A17" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:7">
+      <x:c r="A18" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:7">
+      <x:c r="A19" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:7">
+      <x:c r="A20" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:7">
+      <x:c r="A21" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:7">
+      <x:c r="A22" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:7">
+      <x:c r="A23" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:7">
+      <x:c r="A24" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:7">
+      <x:c r="A25" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:7">
+      <x:c r="A26" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:7">
+      <x:c r="A27" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:7">
+      <x:c r="A28" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:7">
+      <x:c r="A29" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:7">
+      <x:c r="A30" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:7">
+      <x:c r="A31" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:7">
+      <x:c r="A32" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:6">
-      <x:c r="A12" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:6">
-      <x:c r="A13" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:6">
-      <x:c r="A14" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
+      <x:c r="F32" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:7">
+      <x:c r="A33" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:6">
-      <x:c r="A15" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
+      <x:c r="F33" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:7">
+      <x:c r="A34" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E15" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:6">
-      <x:c r="A16" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
+      <x:c r="F34" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:7">
+      <x:c r="A35" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="E16" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F16" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:6">
-      <x:c r="A17" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="s">
+      <x:c r="F35" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:7">
+      <x:c r="A36" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="E17" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F17" s="0" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:6">
-      <x:c r="A18" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="B18" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C18" s="0" t="s">
+      <x:c r="F36" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:7">
+      <x:c r="A37" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="E18" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F18" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:6">
-      <x:c r="A19" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="B19" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E19" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F19" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:6">
-      <x:c r="A20" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="B20" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C20" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E20" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F20" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:6">
-      <x:c r="A21" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="B21" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C21" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E21" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F21" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:6">
-      <x:c r="A22" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="B22" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C22" s="0" t="s">
+      <x:c r="F37" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:7">
+      <x:c r="A38" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E22" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F22" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:6">
-      <x:c r="A23" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="B23" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C23" s="0" t="s">
+      <x:c r="F38" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:7">
+      <x:c r="A39" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="E23" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F23" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:6">
-      <x:c r="A24" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="B24" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C24" s="0" t="s">
+      <x:c r="F39" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:7">
+      <x:c r="A40" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E24" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F24" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:6">
-      <x:c r="A25" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B25" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C25" s="0" t="s">
+      <x:c r="F40" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:7">
+      <x:c r="A41" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D25" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E25" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F25" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:6">
-      <x:c r="A26" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B26" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C26" s="0" t="s">
+      <x:c r="F41" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:7">
+      <x:c r="A42" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E26" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F26" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:6">
-      <x:c r="A27" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="B27" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C27" s="0" t="s">
+      <x:c r="F42" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:7">
+      <x:c r="A43" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E43" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D27" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E27" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F27" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:6">
-      <x:c r="A28" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="B28" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C28" s="0" t="s">
+      <x:c r="F43" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:7">
+      <x:c r="A44" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F28" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:6">
-      <x:c r="A29" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B29" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C29" s="0" t="s">
+      <x:c r="F44" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:7">
+      <x:c r="A45" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="D29" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="E29" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F29" s="0" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:6">
-      <x:c r="A30" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="B30" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C30" s="0" t="s">
+      <x:c r="F45" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:7">
+      <x:c r="A46" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="D30" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="E30" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="F30" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:6">
-      <x:c r="A31" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="B31" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C31" s="0" t="s">
+      <x:c r="F46" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:7">
+      <x:c r="A47" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E47" s="0" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="D31" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E31" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="F31" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:6">
-      <x:c r="A32" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="B32" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C32" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="D32" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="E32" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F32" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:6">
-      <x:c r="A33" s="0" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="B33" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C33" s="0" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D33" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="E33" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="F33" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:6">
-      <x:c r="A34" s="0" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B34" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C34" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D34" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E34" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="F34" s="0" t="s">
-        <x:v>107</x:v>
+      <x:c r="F47" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:7">
+      <x:c r="A48" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="E48" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:7">
+      <x:c r="A49" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:7">
+      <x:c r="A50" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:7">
+      <x:c r="A51" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:7">
+      <x:c r="A52" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:7">
+      <x:c r="A53" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:7">
+      <x:c r="A54" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:7">
+      <x:c r="A55" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:7">
+      <x:c r="A56" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:7">
+      <x:c r="A57" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:7">
+      <x:c r="A58" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:7">
+      <x:c r="A59" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="F59" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:7">
+      <x:c r="A60" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:7">
+      <x:c r="A61" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="E61" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="F61" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:7">
+      <x:c r="A62" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="E62" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="F62" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:7">
+      <x:c r="A63" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="E63" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="F63" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G63" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:7">
+      <x:c r="A64" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="E64" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="F64" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G64" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:7">
+      <x:c r="A65" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="E65" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="F65" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G65" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:7">
+      <x:c r="A66" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="D66" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="E66" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="F66" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G66" s="0" t="s">
+        <x:v>7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
